--- a/Formatted-Data/issued_student_degrees.xlsx
+++ b/Formatted-Data/issued_student_degrees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\alc\Formatted-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B11C6255-76DD-4DE6-9344-ACD1E343B3A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6292A23-BF1E-4616-8007-94B47DB494CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AC0BD6E1-1E93-43A4-8FE7-90504166469E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="168">
   <si>
     <t>Notes</t>
   </si>
@@ -503,6 +503,48 @@
   </si>
   <si>
     <t>The year 2010-2011 had oddly reported data, it is included as reported</t>
+  </si>
+  <si>
+    <t>Stanford Undergraduate Student Completion Rates</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>4 Years</t>
+  </si>
+  <si>
+    <t>5+ Years</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>2001-2002</t>
+  </si>
+  <si>
+    <t>2002-2003</t>
+  </si>
+  <si>
+    <t>2003-2004</t>
+  </si>
+  <si>
+    <t>2004-2005</t>
+  </si>
+  <si>
+    <t>2005-2006</t>
+  </si>
+  <si>
+    <t>2006-2007</t>
+  </si>
+  <si>
+    <t>2007-2008</t>
+  </si>
+  <si>
+    <t>N/R</t>
+  </si>
+  <si>
+    <t>Year Represents *Entering Academic Year*, data from https://irds.stanford.edu/sites/g/files/sbiybj10071/f/stanford_ug_completion_rates_2001-2012_cohorts.pdf</t>
   </si>
 </sst>
 </file>
@@ -854,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B93501D-9FFD-431F-A6B0-5767EF8CA38F}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +908,7 @@
     <col min="3" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -907,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -948,7 +990,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -986,7 +1028,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -1024,7 +1066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -1060,6 +1102,179 @@
       </c>
       <c r="L5">
         <v>1754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8">
+        <v>1615</v>
+      </c>
+      <c r="D8">
+        <v>1636</v>
+      </c>
+      <c r="E8">
+        <v>1640</v>
+      </c>
+      <c r="F8">
+        <v>1644</v>
+      </c>
+      <c r="G8">
+        <v>1631</v>
+      </c>
+      <c r="H8">
+        <v>1646</v>
+      </c>
+      <c r="I8">
+        <v>1721</v>
+      </c>
+      <c r="J8">
+        <v>1703</v>
+      </c>
+      <c r="K8">
+        <v>1692</v>
+      </c>
+      <c r="L8">
+        <v>1672</v>
+      </c>
+      <c r="M8">
+        <v>1704</v>
+      </c>
+      <c r="N8">
+        <v>1762</v>
+      </c>
+      <c r="O8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="D9">
+        <v>79.5</v>
+      </c>
+      <c r="E9">
+        <v>79.3</v>
+      </c>
+      <c r="F9">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G9">
+        <v>78.8</v>
+      </c>
+      <c r="H9">
+        <v>79.8</v>
+      </c>
+      <c r="I9">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="J9">
+        <v>76.2</v>
+      </c>
+      <c r="K9">
+        <v>75.2</v>
+      </c>
+      <c r="L9">
+        <v>75</v>
+      </c>
+      <c r="M9">
+        <v>74.7</v>
+      </c>
+      <c r="N9">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10">
+        <v>97.4</v>
+      </c>
+      <c r="D10">
+        <v>96.7</v>
+      </c>
+      <c r="E10">
+        <v>96.6</v>
+      </c>
+      <c r="F10">
+        <v>96.6</v>
+      </c>
+      <c r="G10">
+        <v>97.8</v>
+      </c>
+      <c r="H10">
+        <v>97.5</v>
+      </c>
+      <c r="I10">
+        <v>96.7</v>
+      </c>
+      <c r="J10">
+        <v>96.2</v>
+      </c>
+      <c r="K10">
+        <v>96</v>
+      </c>
+      <c r="L10">
+        <v>94.6</v>
+      </c>
+      <c r="M10">
+        <v>91.1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Formatted-Data/issued_student_degrees.xlsx
+++ b/Formatted-Data/issued_student_degrees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\alc\Formatted-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6292A23-BF1E-4616-8007-94B47DB494CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A003E7-834C-498C-8DD0-21E084A1A709}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AC0BD6E1-1E93-43A4-8FE7-90504166469E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AC0BD6E1-1E93-43A4-8FE7-90504166469E}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregated Degree Data" sheetId="1" r:id="rId1"/>
